--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H2">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I2">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J2">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N2">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O2">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P2">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q2">
-        <v>14.79746141238367</v>
+        <v>75.47258806214766</v>
       </c>
       <c r="R2">
-        <v>133.177152711453</v>
+        <v>679.253292559329</v>
       </c>
       <c r="S2">
-        <v>0.0002979702058105165</v>
+        <v>0.001002135268392509</v>
       </c>
       <c r="T2">
-        <v>0.0002979702058105163</v>
+        <v>0.001002135268392509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H3">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I3">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J3">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P3">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q3">
-        <v>5.303038977559334</v>
+        <v>28.56234405676467</v>
       </c>
       <c r="R3">
-        <v>47.72735079803401</v>
+        <v>257.061096510882</v>
       </c>
       <c r="S3">
-        <v>0.000106785047213717</v>
+        <v>0.0003792546812317507</v>
       </c>
       <c r="T3">
-        <v>0.000106785047213717</v>
+        <v>0.0003792546812317507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H4">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I4">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J4">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N4">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P4">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q4">
-        <v>7.659571244477666</v>
+        <v>34.53852067346456</v>
       </c>
       <c r="R4">
-        <v>68.93614120029901</v>
+        <v>310.8466860611811</v>
       </c>
       <c r="S4">
-        <v>0.0001542375382190419</v>
+        <v>0.0004586071655112881</v>
       </c>
       <c r="T4">
-        <v>0.0001542375382190419</v>
+        <v>0.0004586071655112881</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H5">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I5">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J5">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N5">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O5">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P5">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q5">
-        <v>2.433045005422445</v>
+        <v>11.16841866375678</v>
       </c>
       <c r="R5">
-        <v>21.897405048802</v>
+        <v>100.515767973811</v>
       </c>
       <c r="S5">
-        <v>4.899319557645608E-05</v>
+        <v>0.0001482957789377458</v>
       </c>
       <c r="T5">
-        <v>4.899319557645605E-05</v>
+        <v>0.0001482957789377458</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H6">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I6">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J6">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N6">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O6">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P6">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q6">
-        <v>2.978534857300667</v>
+        <v>14.87183326709556</v>
       </c>
       <c r="R6">
-        <v>26.80681371570601</v>
+        <v>133.84649940386</v>
       </c>
       <c r="S6">
-        <v>5.997749341660292E-05</v>
+        <v>0.0001974702207155946</v>
       </c>
       <c r="T6">
-        <v>5.997749341660288E-05</v>
+        <v>0.0001974702207155946</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1518936666666667</v>
+        <v>0.8181043333333333</v>
       </c>
       <c r="H7">
-        <v>0.4556810000000001</v>
+        <v>2.454313</v>
       </c>
       <c r="I7">
-        <v>0.0008633602951388269</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="J7">
-        <v>0.0008633602951388268</v>
+        <v>0.003510462371845219</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N7">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O7">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P7">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q7">
-        <v>9.703576975951002</v>
+        <v>99.76545531065645</v>
       </c>
       <c r="R7">
-        <v>87.33219278355901</v>
+        <v>897.889097795908</v>
       </c>
       <c r="S7">
-        <v>0.0001953968149024927</v>
+        <v>0.001324699257056331</v>
       </c>
       <c r="T7">
-        <v>0.0001953968149024925</v>
+        <v>0.001324699257056331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>6.883193</v>
       </c>
       <c r="I8">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J8">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N8">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O8">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P8">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q8">
-        <v>223.5199247093677</v>
+        <v>211.6650931813743</v>
       </c>
       <c r="R8">
-        <v>2011.679322384309</v>
+        <v>1904.985838632369</v>
       </c>
       <c r="S8">
-        <v>0.004500925943463752</v>
+        <v>0.002810517837151349</v>
       </c>
       <c r="T8">
-        <v>0.00450092594346375</v>
+        <v>0.002810517837151348</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>6.883193</v>
       </c>
       <c r="I9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J9">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P9">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q9">
         <v>80.10393404391134</v>
@@ -1013,10 +1013,10 @@
         <v>720.9354063952021</v>
       </c>
       <c r="S9">
-        <v>0.00161301895292129</v>
+        <v>0.001063630908963778</v>
       </c>
       <c r="T9">
-        <v>0.001613018952921289</v>
+        <v>0.001063630908963778</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>6.883193</v>
       </c>
       <c r="I10">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J10">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N10">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P10">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q10">
-        <v>115.7000339557497</v>
+        <v>96.86429714952679</v>
       </c>
       <c r="R10">
-        <v>1041.300305601747</v>
+        <v>871.7786743457411</v>
       </c>
       <c r="S10">
-        <v>0.002329802522831854</v>
+        <v>0.001286177285210623</v>
       </c>
       <c r="T10">
-        <v>0.002329802522831852</v>
+        <v>0.001286177285210623</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>6.883193</v>
       </c>
       <c r="I11">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J11">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N11">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O11">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P11">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q11">
-        <v>36.75184690607845</v>
+        <v>31.32215865190789</v>
       </c>
       <c r="R11">
-        <v>330.7666221547061</v>
+        <v>281.899427867171</v>
       </c>
       <c r="S11">
-        <v>0.0007400563570556889</v>
+        <v>0.0004158998740233375</v>
       </c>
       <c r="T11">
-        <v>0.0007400563570556886</v>
+        <v>0.0004158998740233374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>6.883193</v>
       </c>
       <c r="I12">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J12">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N12">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O12">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P12">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q12">
-        <v>44.99162852966867</v>
+        <v>41.70849383971778</v>
       </c>
       <c r="R12">
-        <v>404.9246567670181</v>
+        <v>375.37644455746</v>
       </c>
       <c r="S12">
-        <v>0.0009059773456490555</v>
+        <v>0.0005538110424131053</v>
       </c>
       <c r="T12">
-        <v>0.000905977345649055</v>
+        <v>0.0005538110424131052</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>6.883193</v>
       </c>
       <c r="I13">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="J13">
-        <v>0.01304130639631125</v>
+        <v>0.00984519497906274</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N13">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O13">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P13">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q13">
-        <v>146.575330364503</v>
+        <v>279.7951539335543</v>
       </c>
       <c r="R13">
-        <v>1319.177973280527</v>
+        <v>2518.156385401988</v>
       </c>
       <c r="S13">
-        <v>0.002951525274389612</v>
+        <v>0.003715158031300548</v>
       </c>
       <c r="T13">
-        <v>0.002951525274389611</v>
+        <v>0.003715158031300548</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H14">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I14">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J14">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N14">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O14">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P14">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q14">
-        <v>3522.204979605512</v>
+        <v>6922.533716124233</v>
       </c>
       <c r="R14">
-        <v>31699.84481644961</v>
+        <v>62302.8034451181</v>
       </c>
       <c r="S14">
-        <v>0.07092514813396079</v>
+        <v>0.09191834229736287</v>
       </c>
       <c r="T14">
-        <v>0.07092514813396077</v>
+        <v>0.09191834229736286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H15">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I15">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J15">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>104.738514</v>
       </c>
       <c r="O15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P15">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q15">
-        <v>1262.269910578721</v>
+        <v>2619.809321785533</v>
       </c>
       <c r="R15">
-        <v>11360.42919520849</v>
+        <v>23578.2838960698</v>
       </c>
       <c r="S15">
-        <v>0.02541779394192562</v>
+        <v>0.03478618376864012</v>
       </c>
       <c r="T15">
-        <v>0.02541779394192561</v>
+        <v>0.03478618376864012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H16">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I16">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J16">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N16">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P16">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q16">
-        <v>1823.189750396284</v>
+        <v>3167.959122724545</v>
       </c>
       <c r="R16">
-        <v>16408.70775356656</v>
+        <v>28511.6321045209</v>
       </c>
       <c r="S16">
-        <v>0.03671279890634253</v>
+        <v>0.04206459122739826</v>
       </c>
       <c r="T16">
-        <v>0.03671279890634252</v>
+        <v>0.04206459122739826</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H17">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I17">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J17">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N17">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O17">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P17">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q17">
-        <v>579.1319872293417</v>
+        <v>1024.395171025322</v>
       </c>
       <c r="R17">
-        <v>5212.187885064076</v>
+        <v>9219.5565392279</v>
       </c>
       <c r="S17">
-        <v>0.01166173525424876</v>
+        <v>0.01360205812486668</v>
       </c>
       <c r="T17">
-        <v>0.01166173525424876</v>
+        <v>0.01360205812486667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H18">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I18">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J18">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N18">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O18">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P18">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q18">
-        <v>708.9736552739586</v>
+        <v>1364.081580550445</v>
       </c>
       <c r="R18">
-        <v>6380.762897465628</v>
+        <v>12276.734224954</v>
       </c>
       <c r="S18">
-        <v>0.01427630186617163</v>
+        <v>0.01811246037711799</v>
       </c>
       <c r="T18">
-        <v>0.01427630186617162</v>
+        <v>0.01811246037711799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>36.15489266666666</v>
+        <v>75.03856666666667</v>
       </c>
       <c r="H19">
-        <v>108.464678</v>
+        <v>225.1157</v>
       </c>
       <c r="I19">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="J19">
-        <v>0.2055036229516214</v>
+        <v>0.3219883503699801</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N19">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O19">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P19">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q19">
-        <v>2309.719633130938</v>
+        <v>9150.735993362356</v>
       </c>
       <c r="R19">
-        <v>20787.47669817844</v>
+        <v>82356.6239402612</v>
       </c>
       <c r="S19">
-        <v>0.04650984484897211</v>
+        <v>0.1215047145745942</v>
       </c>
       <c r="T19">
-        <v>0.0465098448489721</v>
+        <v>0.1215047145745942</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H20">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I20">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J20">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N20">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O20">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P20">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q20">
-        <v>87.35113765266601</v>
+        <v>108.1758191965927</v>
       </c>
       <c r="R20">
-        <v>786.1602388739941</v>
+        <v>973.5823727693339</v>
       </c>
       <c r="S20">
-        <v>0.001758952818918342</v>
+        <v>0.001436373210295766</v>
       </c>
       <c r="T20">
-        <v>0.001758952818918341</v>
+        <v>0.001436373210295765</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H21">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I21">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J21">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>104.738514</v>
       </c>
       <c r="O21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P21">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q21">
-        <v>31.304456541348</v>
+        <v>40.93877056357466</v>
       </c>
       <c r="R21">
-        <v>281.7401088721321</v>
+        <v>368.448935072172</v>
       </c>
       <c r="S21">
-        <v>0.0006303645671686365</v>
+        <v>0.000543590552275806</v>
       </c>
       <c r="T21">
-        <v>0.0006303645671686362</v>
+        <v>0.000543590552275806</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H22">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I22">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J22">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N22">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P22">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q22">
-        <v>45.215340894678</v>
+        <v>49.50450042356956</v>
       </c>
       <c r="R22">
-        <v>406.938068052102</v>
+        <v>445.5405038121261</v>
       </c>
       <c r="S22">
-        <v>0.0009104821466812379</v>
+        <v>0.000657327476007045</v>
       </c>
       <c r="T22">
-        <v>0.0009104821466812375</v>
+        <v>0.000657327476007045</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H23">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I23">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J23">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N23">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O23">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P23">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q23">
-        <v>14.362547957444</v>
+        <v>16.00783634301177</v>
       </c>
       <c r="R23">
-        <v>129.262931616996</v>
+        <v>144.070527087106</v>
       </c>
       <c r="S23">
-        <v>0.0002892125379871908</v>
+        <v>0.0002125542237504525</v>
       </c>
       <c r="T23">
-        <v>0.0002892125379871907</v>
+        <v>0.0002125542237504525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H24">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I24">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J24">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N24">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O24">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P24">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q24">
-        <v>17.582638066932</v>
+        <v>21.31598753839556</v>
       </c>
       <c r="R24">
-        <v>158.243742602388</v>
+        <v>191.84388784556</v>
       </c>
       <c r="S24">
-        <v>0.0003540541270890601</v>
+        <v>0.0002830365758128149</v>
       </c>
       <c r="T24">
-        <v>0.0003540541270890599</v>
+        <v>0.0002830365758128149</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8966460000000001</v>
+        <v>1.172599333333333</v>
       </c>
       <c r="H25">
-        <v>2.689938</v>
+        <v>3.517798</v>
       </c>
       <c r="I25">
-        <v>0.005096516347148873</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="J25">
-        <v>0.005096516347148872</v>
+        <v>0.005031590310914854</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N25">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O25">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P25">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q25">
-        <v>57.281344720398</v>
+        <v>142.9950944157964</v>
       </c>
       <c r="R25">
-        <v>515.532102483582</v>
+        <v>1286.955849742168</v>
       </c>
       <c r="S25">
-        <v>0.001153450149304406</v>
+        <v>0.001898708272772971</v>
       </c>
       <c r="T25">
-        <v>0.001153450149304406</v>
+        <v>0.001898708272772971</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H26">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I26">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J26">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N26">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O26">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P26">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q26">
-        <v>10975.62876009468</v>
+        <v>10639.7057832988</v>
       </c>
       <c r="R26">
-        <v>98780.65884085213</v>
+        <v>95757.35204968917</v>
       </c>
       <c r="S26">
-        <v>0.221011582284533</v>
+        <v>0.1412754575473618</v>
       </c>
       <c r="T26">
-        <v>0.2210115822845329</v>
+        <v>0.1412754575473618</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H27">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I27">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J27">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>104.738514</v>
       </c>
       <c r="O27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P27">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q27">
-        <v>3933.390025216996</v>
+        <v>4026.560438010787</v>
       </c>
       <c r="R27">
-        <v>35400.51022695297</v>
+        <v>36239.04394209709</v>
       </c>
       <c r="S27">
-        <v>0.07920500704033547</v>
+        <v>0.05346521603210243</v>
       </c>
       <c r="T27">
-        <v>0.07920500704033542</v>
+        <v>0.05346521603210243</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H28">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I28">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J28">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N28">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P28">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q28">
-        <v>5681.286005620405</v>
+        <v>4869.048585606286</v>
       </c>
       <c r="R28">
-        <v>51131.57405058365</v>
+        <v>43821.43727045657</v>
       </c>
       <c r="S28">
-        <v>0.1144016472275716</v>
+        <v>0.06465188800912401</v>
       </c>
       <c r="T28">
-        <v>0.1144016472275715</v>
+        <v>0.06465188800912401</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H29">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I29">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J29">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N29">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O29">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P29">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q29">
-        <v>1804.647296716121</v>
+        <v>1574.461558801006</v>
       </c>
       <c r="R29">
-        <v>16241.82567044509</v>
+        <v>14170.15402920905</v>
       </c>
       <c r="S29">
-        <v>0.03633941737924584</v>
+        <v>0.02090591428378579</v>
       </c>
       <c r="T29">
-        <v>0.03633941737924583</v>
+        <v>0.02090591428378579</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H30">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I30">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J30">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N30">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O30">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P30">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q30">
-        <v>2209.250082272564</v>
+        <v>2096.548355939198</v>
       </c>
       <c r="R30">
-        <v>19883.25074045308</v>
+        <v>18868.93520345278</v>
       </c>
       <c r="S30">
-        <v>0.04448673210600484</v>
+        <v>0.027838253640473</v>
       </c>
       <c r="T30">
-        <v>0.04448673210600482</v>
+        <v>0.027838253640473</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>112.663142</v>
+        <v>115.3317996666667</v>
       </c>
       <c r="H31">
-        <v>337.989426</v>
+        <v>345.995399</v>
       </c>
       <c r="I31">
-        <v>0.6403748468449697</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="J31">
-        <v>0.6403748468449696</v>
+        <v>0.4948854644949822</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N31">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O31">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P31">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q31">
-        <v>7197.373628148846</v>
+        <v>14064.3791222339</v>
       </c>
       <c r="R31">
-        <v>64776.36265333961</v>
+        <v>126579.4121001051</v>
       </c>
       <c r="S31">
-        <v>0.144930460807279</v>
+        <v>0.1867487349821351</v>
       </c>
       <c r="T31">
-        <v>0.144930460807279</v>
+        <v>0.1867487349821351</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H32">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I32">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J32">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>97.419871</v>
+        <v>92.253011</v>
       </c>
       <c r="N32">
-        <v>292.259613</v>
+        <v>276.759033</v>
       </c>
       <c r="O32">
-        <v>0.3451284562056486</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="P32">
-        <v>0.3451284562056485</v>
+        <v>0.2854710184133813</v>
       </c>
       <c r="Q32">
-        <v>2315.879169400133</v>
+        <v>3541.776737283897</v>
       </c>
       <c r="R32">
-        <v>20842.9125246012</v>
+        <v>31875.99063555507</v>
       </c>
       <c r="S32">
-        <v>0.04663387681896215</v>
+        <v>0.04702819225281702</v>
       </c>
       <c r="T32">
-        <v>0.04663387681896212</v>
+        <v>0.04702819225281701</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H33">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I33">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J33">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>104.738514</v>
       </c>
       <c r="O33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="P33">
-        <v>0.123685381195977</v>
+        <v>0.1080355352256351</v>
       </c>
       <c r="Q33">
-        <v>829.9530007470593</v>
+        <v>1340.373350642845</v>
       </c>
       <c r="R33">
-        <v>7469.577006723534</v>
+        <v>12063.36015578561</v>
       </c>
       <c r="S33">
-        <v>0.01671241164641227</v>
+        <v>0.01779765928242121</v>
       </c>
       <c r="T33">
-        <v>0.01671241164641226</v>
+        <v>0.01779765928242121</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H34">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I34">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J34">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.427193</v>
+        <v>42.21774566666667</v>
       </c>
       <c r="N34">
-        <v>151.281579</v>
+        <v>126.653237</v>
       </c>
       <c r="O34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="P34">
-        <v>0.1786479400170247</v>
+        <v>0.1306401029076487</v>
       </c>
       <c r="Q34">
-        <v>1198.762476702728</v>
+        <v>1620.823297602374</v>
       </c>
       <c r="R34">
-        <v>10788.86229032455</v>
+        <v>14587.40967842137</v>
       </c>
       <c r="S34">
-        <v>0.02413897167537853</v>
+        <v>0.02152151174439751</v>
       </c>
       <c r="T34">
-        <v>0.02413897167537852</v>
+        <v>0.02152151174439751</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H35">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I35">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J35">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>16.01808066666667</v>
+        <v>13.65158233333333</v>
       </c>
       <c r="N35">
-        <v>48.054242</v>
+        <v>40.954747</v>
       </c>
       <c r="O35">
-        <v>0.05674710297927014</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="P35">
-        <v>0.05674710297927013</v>
+        <v>0.0422439448794879</v>
       </c>
       <c r="Q35">
-        <v>380.7841148722557</v>
+        <v>524.1114215265648</v>
       </c>
       <c r="R35">
-        <v>3427.057033850302</v>
+        <v>4717.002793739084</v>
       </c>
       <c r="S35">
-        <v>0.007667688255156204</v>
+        <v>0.006959222594123896</v>
       </c>
       <c r="T35">
-        <v>0.007667688255156201</v>
+        <v>0.006959222594123895</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H36">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I36">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J36">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>19.609342</v>
+        <v>18.17840666666667</v>
       </c>
       <c r="N36">
-        <v>58.82802600000001</v>
+        <v>54.53522</v>
       </c>
       <c r="O36">
-        <v>0.06946983056124748</v>
+        <v>0.0562519120841046</v>
       </c>
       <c r="P36">
-        <v>0.06946983056124745</v>
+        <v>0.05625191208410459</v>
       </c>
       <c r="Q36">
-        <v>466.1560952328007</v>
+        <v>697.9052190815378</v>
       </c>
       <c r="R36">
-        <v>4195.404857095206</v>
+        <v>6281.14697173384</v>
       </c>
       <c r="S36">
-        <v>0.009386787622916285</v>
+        <v>0.009266880227572091</v>
       </c>
       <c r="T36">
-        <v>0.009386787622916278</v>
+        <v>0.009266880227572091</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>23.77214366666666</v>
+        <v>38.39199066666666</v>
       </c>
       <c r="H37">
-        <v>71.31643099999999</v>
+        <v>115.175972</v>
       </c>
       <c r="I37">
-        <v>0.13512034716481</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="J37">
-        <v>0.1351203471648099</v>
+        <v>0.1647389374732149</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>63.884013</v>
+        <v>121.9471053333333</v>
       </c>
       <c r="N37">
-        <v>191.652039</v>
+        <v>365.841316</v>
       </c>
       <c r="O37">
-        <v>0.2263212890408322</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="P37">
-        <v>0.2263212890408321</v>
+        <v>0.3773574864897424</v>
       </c>
       <c r="Q37">
-        <v>1518.659935039201</v>
+        <v>4681.79212978435</v>
       </c>
       <c r="R37">
-        <v>13667.93941535281</v>
+        <v>42136.12916805915</v>
       </c>
       <c r="S37">
-        <v>0.03058061114598455</v>
+        <v>0.06216547137188322</v>
       </c>
       <c r="T37">
-        <v>0.03058061114598453</v>
+        <v>0.06216547137188322</v>
       </c>
     </row>
   </sheetData>
